--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.240564</v>
+        <v>0.03397833333333333</v>
       </c>
       <c r="H2">
-        <v>0.721692</v>
+        <v>0.101935</v>
       </c>
       <c r="I2">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182536</v>
       </c>
       <c r="J2">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182535</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N2">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q2">
-        <v>0.030763404508</v>
+        <v>0.002191557195555555</v>
       </c>
       <c r="R2">
-        <v>0.276870640572</v>
+        <v>0.01972401476</v>
       </c>
       <c r="S2">
-        <v>0.002278277401377861</v>
+        <v>0.0001804550209973933</v>
       </c>
       <c r="T2">
-        <v>0.002278277401377861</v>
+        <v>0.0001804550209973933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.240564</v>
+        <v>0.03397833333333333</v>
       </c>
       <c r="H3">
-        <v>0.721692</v>
+        <v>0.101935</v>
       </c>
       <c r="I3">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182536</v>
       </c>
       <c r="J3">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P3">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q3">
-        <v>2.554753916152</v>
+        <v>0.3608448485544444</v>
       </c>
       <c r="R3">
-        <v>22.992785245368</v>
+        <v>3.24760363699</v>
       </c>
       <c r="S3">
-        <v>0.1892000643731448</v>
+        <v>0.02971232731445397</v>
       </c>
       <c r="T3">
-        <v>0.1892000643731448</v>
+        <v>0.02971232731445397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.240564</v>
+        <v>0.03397833333333333</v>
       </c>
       <c r="H4">
-        <v>0.721692</v>
+        <v>0.101935</v>
       </c>
       <c r="I4">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182536</v>
       </c>
       <c r="J4">
-        <v>0.2284086981730899</v>
+        <v>0.03987224921182535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N4">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q4">
-        <v>0.498667761804</v>
+        <v>0.1211968074916667</v>
       </c>
       <c r="R4">
-        <v>4.488009856236</v>
+        <v>1.090771267425</v>
       </c>
       <c r="S4">
-        <v>0.03693035639856728</v>
+        <v>0.009979466876373992</v>
       </c>
       <c r="T4">
-        <v>0.03693035639856728</v>
+        <v>0.009979466876373992</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7475460000000002</v>
+        <v>0.7475459999999999</v>
       </c>
       <c r="H5">
         <v>2.242638</v>
       </c>
       <c r="I5">
-        <v>0.7097737345758331</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="J5">
-        <v>0.709773734575833</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N5">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P5">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q5">
-        <v>0.09559643166200003</v>
+        <v>0.048215720272</v>
       </c>
       <c r="R5">
-        <v>0.8603678849580002</v>
+        <v>0.433941482448</v>
       </c>
       <c r="S5">
-        <v>0.007079684234924656</v>
+        <v>0.003970130842002768</v>
       </c>
       <c r="T5">
-        <v>0.007079684234924655</v>
+        <v>0.003970130842002768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7475460000000002</v>
+        <v>0.7475459999999999</v>
       </c>
       <c r="H6">
         <v>2.242638</v>
       </c>
       <c r="I6">
-        <v>0.7097737345758331</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="J6">
-        <v>0.709773734575833</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.859554</v>
       </c>
       <c r="O6">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P6">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q6">
-        <v>7.938827384828001</v>
+        <v>7.938827384828</v>
       </c>
       <c r="R6">
-        <v>71.44944646345201</v>
+        <v>71.44944646345199</v>
       </c>
       <c r="S6">
-        <v>0.5879339856416045</v>
+        <v>0.6536910217671302</v>
       </c>
       <c r="T6">
-        <v>0.5879339856416044</v>
+        <v>0.6536910217671303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7475460000000002</v>
+        <v>0.7475459999999999</v>
       </c>
       <c r="H7">
         <v>2.242638</v>
       </c>
       <c r="I7">
-        <v>0.7097737345758331</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="J7">
-        <v>0.709773734575833</v>
+        <v>0.8772160811096247</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N7">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P7">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q7">
-        <v>1.549596326406</v>
+        <v>2.66641061421</v>
       </c>
       <c r="R7">
-        <v>13.946366937654</v>
+        <v>23.99769552789</v>
       </c>
       <c r="S7">
-        <v>0.1147600646993041</v>
+        <v>0.2195549285004916</v>
       </c>
       <c r="T7">
-        <v>0.114760064699304</v>
+        <v>0.2195549285004917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06510733333333334</v>
+        <v>0.07065566666666666</v>
       </c>
       <c r="H8">
-        <v>0.195322</v>
+        <v>0.211967</v>
       </c>
       <c r="I8">
-        <v>0.06181756725107701</v>
+        <v>0.08291166967854992</v>
       </c>
       <c r="J8">
-        <v>0.06181756725107701</v>
+        <v>0.0829116696785499</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N8">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O8">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P8">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q8">
-        <v>0.008325947489111113</v>
+        <v>0.004557196292444444</v>
       </c>
       <c r="R8">
-        <v>0.074933527402</v>
+        <v>0.041014766632</v>
       </c>
       <c r="S8">
-        <v>0.0006166033413033907</v>
+        <v>0.0003752441206234803</v>
       </c>
       <c r="T8">
-        <v>0.0006166033413033907</v>
+        <v>0.0003752441206234803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06510733333333334</v>
+        <v>0.07065566666666666</v>
       </c>
       <c r="H9">
-        <v>0.195322</v>
+        <v>0.211967</v>
       </c>
       <c r="I9">
-        <v>0.06181756725107701</v>
+        <v>0.08291166967854992</v>
       </c>
       <c r="J9">
-        <v>0.06181756725107701</v>
+        <v>0.0829116696785499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.859554</v>
       </c>
       <c r="O9">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P9">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q9">
-        <v>0.6914302007097778</v>
+        <v>0.7503526758575555</v>
       </c>
       <c r="R9">
-        <v>6.222871806388</v>
+        <v>6.753174082717999</v>
       </c>
       <c r="S9">
-        <v>0.05120596455758327</v>
+        <v>0.06178479309229278</v>
       </c>
       <c r="T9">
-        <v>0.05120596455758327</v>
+        <v>0.06178479309229279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06510733333333334</v>
+        <v>0.07065566666666666</v>
       </c>
       <c r="H10">
-        <v>0.195322</v>
+        <v>0.211967</v>
       </c>
       <c r="I10">
-        <v>0.06181756725107701</v>
+        <v>0.08291166967854992</v>
       </c>
       <c r="J10">
-        <v>0.06181756725107701</v>
+        <v>0.0829116696785499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N10">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O10">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P10">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q10">
-        <v>0.1349617074473333</v>
+        <v>0.2520206375983333</v>
       </c>
       <c r="R10">
-        <v>1.214655367026</v>
+        <v>2.268185738385</v>
       </c>
       <c r="S10">
-        <v>0.009994999352190351</v>
+        <v>0.02075163246563365</v>
       </c>
       <c r="T10">
-        <v>0.009994999352190351</v>
+        <v>0.02075163246563365</v>
       </c>
     </row>
   </sheetData>
